--- a/TestData/excel.xlsx
+++ b/TestData/excel.xlsx
@@ -67,7 +67,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -119,7 +119,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -131,6 +131,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -445,14 +448,14 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="5" width="38.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="18.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="15.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="22.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="18.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="15.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="22.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
